--- a/Doc/1.SA/現行/業務フロー/現行業務フロー（随時）.xlsx
+++ b/Doc/1.SA/現行/業務フロー/現行業務フロー（随時）.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\zaimu\Doc\1.SA\業務フロー\現行\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\zaimu\Doc\1.SA\現行\業務フロー\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3000" windowWidth="11085" windowHeight="7605"/>
+    <workbookView xWindow="0" yWindow="4200" windowWidth="11085" windowHeight="7605"/>
   </bookViews>
   <sheets>
     <sheet name="受注" sheetId="2" r:id="rId1"/>
@@ -17,6 +17,12 @@
     <sheet name="納品請求" sheetId="4" r:id="rId3"/>
     <sheet name="入金" sheetId="5" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">施行!$A$1:$G$87</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">受注!$A$1:$G$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">入金!$A$1:$G$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">納品請求!$A$1:$G$31</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>顧客</t>
     <rPh sb="0" eb="2">
@@ -212,6 +218,40 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>凡例：</t>
+    <rPh sb="0" eb="2">
+      <t>ハンレイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設計部</t>
+    <rPh sb="0" eb="2">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>技術部</t>
+    <rPh sb="0" eb="2">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支店</t>
+    <rPh sb="0" eb="2">
+      <t>シテン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -439,7 +479,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -501,6 +541,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1632,6 +1678,210 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>490813</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1720098</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="24" name="グループ化 23"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="670107" y="4132169"/>
+          <a:ext cx="2114550" cy="471207"/>
+          <a:chOff x="1143000" y="4162425"/>
+          <a:chExt cx="2114550" cy="476250"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="18" name="直線矢印コネクタ 17"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1143000" y="4295775"/>
+            <a:ext cx="790575" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="20" name="直線矢印コネクタ 19"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="1152525" y="4495800"/>
+            <a:ext cx="771525" cy="15067"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:prstDash val="sysDash"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="正方形/長方形 21"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2028825" y="4162425"/>
+            <a:ext cx="1219200" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>処理の流れ</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="正方形/長方形 22"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2038350" y="4371975"/>
+            <a:ext cx="1219200" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>データの流れ</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2482,13 +2732,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>981633</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>62759</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2014008</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>31258</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2561,14 +2811,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1351425</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>89646</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2431425</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>156882</xdr:rowOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2660,13 +2910,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2014008</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>123264</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1351425</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>136656</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2714,13 +2964,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2041709</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>159129</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>89651</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2776,13 +3026,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>988355</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>91903</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2020730</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>60404</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2855,13 +3105,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1358146</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>126077</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2438146</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>14018</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2954,13 +3204,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2020730</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>159695</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1358146</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>165800</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3008,13 +3258,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2037226</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>134477</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3393138</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>132245</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3592,68 +3842,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2465298</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>134472</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>3821210</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>33620</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="テキスト ボックス 59"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11060210" y="4650443"/>
-          <a:ext cx="1355912" cy="257736"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>既払データ入力</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
       <xdr:colOff>1939336</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>148475</xdr:rowOff>
@@ -3724,8 +3912,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10040470" y="2902324"/>
-          <a:ext cx="981075" cy="669550"/>
+          <a:off x="10040470" y="2935942"/>
+          <a:ext cx="981075" cy="669549"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -3776,7 +3964,7 @@
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>・各種清算書</a:t>
+            <a:t>・各種精算書</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
             <a:solidFill>
@@ -3836,162 +4024,6 @@
           <a:solidFill>
             <a:schemeClr val="accent5"/>
           </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1306609</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>163608</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2386609</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>51549</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="フローチャート: 磁気ディスク 67"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13812374" y="4287373"/>
-          <a:ext cx="1080000" cy="1143000"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMagneticDisk">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent5"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>既払</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>DB</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>システム</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2455522</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>17932</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1306609</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>40281</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="69" name="直線矢印コネクタ 66"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="59" idx="3"/>
-          <a:endCxn id="68" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="11050434" y="4858873"/>
-          <a:ext cx="2761940" cy="22349"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:schemeClr val="accent5"/>
-          </a:solidFill>
-          <a:prstDash val="sysDash"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -4962,6 +4994,658 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2431425</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>6671</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2489140</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="直線矢印コネクタ 66"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="30" idx="4"/>
+          <a:endCxn id="96" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7261160" y="9363583"/>
+          <a:ext cx="3822892" cy="3343888"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 119757"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1456765</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>168103</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2489140</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>136601</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="フローチャート: 手操作入力 56"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10051677" y="10600779"/>
+          <a:ext cx="1032375" cy="506381"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartManualInput">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>既払閲覧処理</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1299883</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>11216</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2379883</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>78452</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="フローチャート: 磁気ディスク 57"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13805648" y="10264598"/>
+          <a:ext cx="1080000" cy="1143001"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>既払閲覧</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>システム</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2489140</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>44834</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1299883</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>62705</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="直線矢印コネクタ 66"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="58" idx="2"/>
+          <a:endCxn id="57" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11084052" y="10836099"/>
+          <a:ext cx="2721596" cy="17871"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1972953</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>80567</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1972953</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>39446</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="直線矢印コネクタ 65"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="96" idx="2"/>
+          <a:endCxn id="57" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10567865" y="9616773"/>
+          <a:ext cx="0" cy="1034644"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2429746</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>1683</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1972953</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>162706</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="直線矢印コネクタ 66"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="48" idx="4"/>
+          <a:endCxn id="96" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7259481" y="7924242"/>
+          <a:ext cx="3308384" cy="1236788"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2438146</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3227294</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>114871</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="直線矢印コネクタ 66"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7267881" y="12718676"/>
+          <a:ext cx="4554325" cy="1235460"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100194"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>470646</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>134472</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1699931</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>67796</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="77" name="グループ化 76"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="649940" y="15060707"/>
+          <a:ext cx="2114550" cy="471207"/>
+          <a:chOff x="1143000" y="4162425"/>
+          <a:chExt cx="2114550" cy="476250"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="78" name="直線矢印コネクタ 77"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1143000" y="4295775"/>
+            <a:ext cx="790575" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="79" name="直線矢印コネクタ 78"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="1152525" y="4495800"/>
+            <a:ext cx="771525" cy="15067"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:prstDash val="sysDash"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="80" name="正方形/長方形 79"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2028825" y="4162425"/>
+            <a:ext cx="1219200" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>処理の流れ</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="81" name="正方形/長方形 80"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2038350" y="4371975"/>
+            <a:ext cx="1219200" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>データの流れ</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4970,13 +5654,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1008530</xdr:colOff>
+      <xdr:colOff>1019738</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>145680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2040905</xdr:colOff>
+      <xdr:colOff>2052113</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>114179</xdr:rowOff>
     </xdr:to>
@@ -4987,7 +5671,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9603442" y="1042151"/>
+          <a:off x="5849473" y="1075768"/>
           <a:ext cx="1032375" cy="506382"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartManualInput">
@@ -5049,15 +5733,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2045073</xdr:colOff>
+      <xdr:colOff>2056282</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>24813</xdr:rowOff>
+      <xdr:rowOff>136873</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3396984</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>100854</xdr:rowOff>
+      <xdr:colOff>3408193</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>33620</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5066,8 +5750,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10636623" y="10340388"/>
-          <a:ext cx="1351911" cy="257016"/>
+          <a:off x="6886017" y="1066961"/>
+          <a:ext cx="1351911" cy="255335"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5110,14 +5794,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1009330</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1446369</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>3204</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2041705</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2478744</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>150998</xdr:rowOff>
     </xdr:to>
@@ -5128,7 +5812,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9604242" y="2513322"/>
+          <a:off x="10041281" y="2546939"/>
           <a:ext cx="1032375" cy="506383"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartManualInput">
@@ -5189,14 +5873,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2071006</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2508045</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>158809</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3426918</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>98781</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>57957</xdr:rowOff>
     </xdr:to>
@@ -5207,7 +5891,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10665918" y="2489633"/>
+          <a:off x="11102957" y="2523250"/>
           <a:ext cx="1355912" cy="257736"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5252,28 +5936,27 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2040905</xdr:colOff>
+      <xdr:colOff>2052113</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>40283</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1355910</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1456771</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
+      <xdr:rowOff>44825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="42" name="直線矢印コネクタ 66"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="37" idx="3"/>
-          <a:endCxn id="48" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10635817" y="1295342"/>
-          <a:ext cx="3080182" cy="4541"/>
+          <a:off x="6881848" y="1328959"/>
+          <a:ext cx="6935011" cy="4542"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5523,14 +6206,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1355911</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1434359</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>11207</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2435911</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2514359</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>78442</xdr:rowOff>
     </xdr:to>
@@ -5541,7 +6224,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13715999" y="728383"/>
+          <a:off x="13794447" y="762001"/>
           <a:ext cx="1080000" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
@@ -5622,14 +6305,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1351429</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1429877</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>40343</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2431429</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2509877</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>107578</xdr:rowOff>
     </xdr:to>
@@ -5640,7 +6323,749 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13711517" y="2191872"/>
+          <a:off x="13789965" y="2225490"/>
+          <a:ext cx="1080000" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>受注報告</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>システム</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2478744</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>73961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1429877</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>77102</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="直線矢印コネクタ 66"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="39" idx="3"/>
+          <a:endCxn id="50" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11073656" y="2796990"/>
+          <a:ext cx="2716309" cy="3141"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2023223</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>150997</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1962558</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>65832</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="直線矢印コネクタ 54"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="39" idx="2"/>
+          <a:endCxn id="44" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="8120267" y="1786012"/>
+          <a:ext cx="1169893" cy="3704512"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>515468</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1744753</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>79002</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="15" name="グループ化 14"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="694762" y="5031442"/>
+          <a:ext cx="2114550" cy="471207"/>
+          <a:chOff x="1143000" y="4162425"/>
+          <a:chExt cx="2114550" cy="476250"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="16" name="直線矢印コネクタ 15"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1143000" y="4295775"/>
+            <a:ext cx="790575" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="17" name="直線矢印コネクタ 16"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="1152525" y="4495800"/>
+            <a:ext cx="771525" cy="15067"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:prstDash val="sysDash"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="正方形/長方形 17"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2028825" y="4162425"/>
+            <a:ext cx="1219200" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>処理の流れ</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2038350" y="4371975"/>
+            <a:ext cx="1219200" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>データの流れ</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1532685</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114179</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1535926</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>89645</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線矢印コネクタ 23"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="37" idx="2"/>
+          <a:endCxn id="44" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6362420" y="1582150"/>
+          <a:ext cx="3241" cy="2306289"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1360953</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>89652</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2440953</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>156887</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="フローチャート: 磁気ディスク 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6190688" y="4605623"/>
+          <a:ext cx="1080000" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>勘定奉行</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2440953</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>121021</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2048159</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123271</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="2"/>
+          <a:endCxn id="6" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="10210814" y="83219"/>
+          <a:ext cx="1257308" cy="7137559"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2436720</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>140622</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3579720</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>37527</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7266455" y="1429298"/>
+          <a:ext cx="1143000" cy="255494"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>入金情報更新</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1333492</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>134465</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2365867</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>102964</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="フローチャート: 手操作入力 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9928404" y="1423141"/>
+          <a:ext cx="1032375" cy="506382"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartManualInput">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>入金情報入力</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1349746</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>11188</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2429746</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>78423</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="フローチャート: 磁気ディスク 48"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6179481" y="1120570"/>
           <a:ext cx="1080000" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
@@ -5722,335 +7147,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2041705</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>73960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1351428</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>77102</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="51" name="直線矢印コネクタ 66"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="39" idx="3"/>
-          <a:endCxn id="50" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="10636617" y="2763372"/>
-          <a:ext cx="3074900" cy="3142"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:schemeClr val="accent5"/>
-          </a:solidFill>
-          <a:prstDash val="sysDash"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1008529</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>40282</xdr:rowOff>
+      <xdr:colOff>2454650</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>12895</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1532684</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>89643</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="55" name="直線矢印コネクタ 54"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="37" idx="1"/>
-          <a:endCxn id="44" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipH="1" flipV="1">
-          <a:off x="9603441" y="1295341"/>
-          <a:ext cx="524155" cy="2559479"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector4">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -122715"/>
-            <a:gd name="adj2" fmla="val 84718"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:schemeClr val="accent5"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1525518</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>150999</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1532685</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>89645</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="58" name="直線矢印コネクタ 54"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="39" idx="2"/>
-          <a:endCxn id="44" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10120430" y="3019705"/>
-          <a:ext cx="7167" cy="835116"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:schemeClr val="accent5"/>
-          </a:solidFill>
-          <a:tailEnd type="none"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1349747</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>179291</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2429747</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>67232</xdr:rowOff>
+      <xdr:colOff>3597650</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>89095</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="フローチャート: 磁気ディスク 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13709835" y="896467"/>
-          <a:ext cx="1080000" cy="1143000"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMagneticDisk">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent5"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>FB</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ソフト</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2429747</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>33614</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1905717</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>140285</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直線矢印コネクタ 6"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="4"/>
-          <a:endCxn id="48" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11024659" y="1467967"/>
-          <a:ext cx="3241146" cy="644553"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:schemeClr val="accent5"/>
-          </a:solidFill>
-          <a:prstDash val="sysDash"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2436720</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>140635</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>3579720</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>37541</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
+        <xdr:cNvPr id="53" name="テキスト ボックス 52"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11031632" y="3009341"/>
+          <a:off x="7284385" y="3990983"/>
           <a:ext cx="1143000" cy="255494"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6085,7 +7199,7 @@
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>入金情報更新</a:t>
+            <a:t>仕訳伝票入力</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6094,28 +7208,286 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1389529</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2429746</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>29067</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2421904</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>58147</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1333492</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>44805</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="直線矢印コネクタ 6"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="48" idx="1"/>
+          <a:endCxn id="49" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7259481" y="1676332"/>
+          <a:ext cx="2668923" cy="15738"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>515469</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1744754</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>90206</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="9" name="グループ化 8"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="694763" y="5221941"/>
+          <a:ext cx="2114550" cy="471206"/>
+          <a:chOff x="1143000" y="4162425"/>
+          <a:chExt cx="2114550" cy="476250"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="11" name="直線矢印コネクタ 10"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1143000" y="4295775"/>
+            <a:ext cx="790575" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="12" name="直線矢印コネクタ 11"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="1152525" y="4495800"/>
+            <a:ext cx="771525" cy="15067"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:prstDash val="sysDash"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2028825" y="4162425"/>
+            <a:ext cx="1219200" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>処理の流れ</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2038350" y="4371975"/>
+            <a:ext cx="1219200" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>データの流れ</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1355911</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2336986</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>154080</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="フローチャート: 手操作入力 47"/>
+        <xdr:cNvPr id="15" name="フローチャート: 書類 14"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13749617" y="2061882"/>
-          <a:ext cx="1032375" cy="506382"/>
+          <a:off x="9950823" y="2386853"/>
+          <a:ext cx="981075" cy="669551"/>
         </a:xfrm>
-        <a:prstGeom prst="flowChartManualInput">
+        <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
@@ -6164,7 +7536,7 @@
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>入金情報入力</a:t>
+            <a:t>仕訳伝票</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6174,27 +7546,80 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1349746</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>11202</xdr:rowOff>
+      <xdr:colOff>1846449</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>102964</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2429746</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>78437</xdr:rowOff>
+      <xdr:colOff>1849680</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="48" idx="2"/>
+          <a:endCxn id="15" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10441361" y="1929523"/>
+          <a:ext cx="3231" cy="457330"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1557621</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2538696</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>165285</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="フローチャート: 磁気ディスク 48"/>
+        <xdr:cNvPr id="20" name="フローチャート: 書類 19"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9944658" y="2700614"/>
-          <a:ext cx="1080000" cy="1143000"/>
+          <a:off x="13917709" y="2398058"/>
+          <a:ext cx="981075" cy="669551"/>
         </a:xfrm>
-        <a:prstGeom prst="flowChartMagneticDisk">
+        <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
@@ -6226,7 +7651,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
           <a:prstTxWarp prst="textNoShape">
             <a:avLst/>
           </a:prstTxWarp>
@@ -6243,27 +7668,7 @@
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>受注報告</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>システム</a:t>
+            <a:t>仕訳伝票</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6273,24 +7678,77 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2443444</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>124946</xdr:rowOff>
+      <xdr:colOff>2336986</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>177894</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1557621</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9805</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線矢印コネクタ 20"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="3"/>
+          <a:endCxn id="20" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10931898" y="2721629"/>
+          <a:ext cx="2985811" cy="11205"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2353237</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3586444</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>21851</xdr:rowOff>
+      <xdr:colOff>3496237</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>154642</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="テキスト ボックス 52"/>
+        <xdr:cNvPr id="28" name="テキスト ボックス 27"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11038356" y="1200711"/>
+          <a:off x="10948149" y="2442883"/>
           <a:ext cx="1143000" cy="255494"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6325,65 +7783,11 @@
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>入金情報取得</a:t>
+            <a:t>送付</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2429746</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>58147</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1905717</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>44820</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="54" name="直線矢印コネクタ 6"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="48" idx="2"/>
-          <a:endCxn id="49" idx="4"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="12293307" y="1299616"/>
-          <a:ext cx="703850" cy="3241147"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:schemeClr val="accent5"/>
-          </a:solidFill>
-          <a:prstDash val="sysDash"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6655,7 +8059,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -6847,6 +8251,11 @@
       <c r="F22" s="11"/>
       <c r="G22" s="17"/>
     </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6860,7 +8269,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -7472,18 +8881,87 @@
       <c r="F74" s="5"/>
       <c r="G74" s="16"/>
     </row>
-    <row r="75" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="6"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="17"/>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="4"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="16"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B76" s="4"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="16"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B77" s="4"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="16"/>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B78" s="4"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="16"/>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B79" s="4"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="16"/>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B80" s="4"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="16"/>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B81" s="4"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="16"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B82" s="4"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="16"/>
+    </row>
+    <row r="83" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="6"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="17"/>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="66" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="59" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -7493,7 +8971,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -7521,13 +8999,13 @@
         <v>0</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>4</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>5</v>
       </c>
       <c r="G3" s="18" t="s">
         <v>10</v>
@@ -7726,6 +9204,11 @@
       <c r="E27" s="9"/>
       <c r="F27" s="7"/>
       <c r="G27" s="17"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -7740,7 +9223,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -7765,15 +9248,15 @@
     <row r="3" spans="1:7" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12"/>
       <c r="C3" s="13" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="E3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="15" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="18" t="s">
@@ -7783,9 +9266,9 @@
     <row r="4" spans="1:7" s="1" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="19"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="3"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="22"/>
       <c r="G4" s="20"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -7793,162 +9276,199 @@
         <v>15</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="5"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="10"/>
       <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="8"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="5"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="10"/>
       <c r="G6" s="16"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="C7" s="8"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="5"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="10"/>
       <c r="G7" s="16"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="C8" s="8"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="5"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="10"/>
       <c r="G8" s="16"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="5"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="10"/>
       <c r="G9" s="16"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="5"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="10"/>
       <c r="G10" s="16"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="5"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="10"/>
       <c r="G11" s="16"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="5"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="10"/>
       <c r="G12" s="16"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="5"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="10"/>
       <c r="G13" s="16"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="5"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="10"/>
       <c r="G14" s="16"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="5"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="10"/>
       <c r="G15" s="16"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="5"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="10"/>
       <c r="G16" s="16"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="5"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="10"/>
       <c r="G17" s="16"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="5"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="10"/>
       <c r="G18" s="16"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="5"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="10"/>
       <c r="G19" s="16"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="5"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="10"/>
       <c r="G20" s="16"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="5"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="10"/>
       <c r="G21" s="16"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="5"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="10"/>
       <c r="G22" s="16"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="5"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="10"/>
       <c r="G23" s="16"/>
     </row>
-    <row r="24" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="6"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="17"/>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="16"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="16"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="16"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="16"/>
+    </row>
+    <row r="28" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="6"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="17"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Doc/1.SA/現行/業務フロー/現行業務フロー（随時）.xlsx
+++ b/Doc/1.SA/現行/業務フロー/現行業務フロー（随時）.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4200" windowWidth="11085" windowHeight="7605"/>
+    <workbookView xWindow="0" yWindow="4800" windowWidth="11085" windowHeight="7605" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="受注" sheetId="2" r:id="rId1"/>
@@ -2732,14 +2732,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>981633</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>62759</xdr:rowOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>40351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2014008</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>31258</xdr:rowOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>8850</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2748,8 +2748,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9576545" y="9206759"/>
-          <a:ext cx="1032375" cy="506382"/>
+          <a:off x="2046192" y="12445263"/>
+          <a:ext cx="1032375" cy="506381"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartManualInput">
           <a:avLst/>
@@ -2910,14 +2910,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2014008</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>123264</xdr:rowOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>114248</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1351425</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>136656</xdr:rowOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2928,9 +2928,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3078567" y="10880911"/>
-          <a:ext cx="3102593" cy="13392"/>
+        <a:xfrm>
+          <a:off x="3078567" y="12698454"/>
+          <a:ext cx="3102593" cy="9017"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2964,14 +2964,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2041709</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>159129</xdr:rowOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>136720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>89651</xdr:rowOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>67243</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2980,7 +2980,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10636621" y="9123835"/>
+          <a:off x="3106268" y="12362338"/>
           <a:ext cx="1723467" cy="289111"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3027,13 +3027,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>988355</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>91903</xdr:rowOff>
+      <xdr:rowOff>103109</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2020730</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>60404</xdr:rowOff>
+      <xdr:rowOff>71610</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3042,8 +3042,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2052914" y="11925315"/>
-          <a:ext cx="1032375" cy="506382"/>
+          <a:off x="2052914" y="13763080"/>
+          <a:ext cx="1032375" cy="506383"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartManualInput">
           <a:avLst/>
@@ -3121,7 +3121,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6187881" y="11600901"/>
+          <a:off x="6187881" y="13427459"/>
           <a:ext cx="1080000" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
@@ -3204,14 +3204,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2020730</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>159695</xdr:rowOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>159694</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1358146</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>165800</xdr:rowOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>177007</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3223,8 +3223,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3085289" y="12172401"/>
-          <a:ext cx="3102592" cy="6105"/>
+          <a:off x="3085289" y="13998959"/>
+          <a:ext cx="3102592" cy="17313"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4741,34 +4741,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1839883</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1972953</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>11205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2435915</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>156893</xdr:rowOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>162706</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="97" name="直線矢印コネクタ 66"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="55" idx="4"/>
-          <a:endCxn id="95" idx="1"/>
+          <a:endCxn id="96" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="14345648" y="2162734"/>
-          <a:ext cx="596032" cy="6600277"/>
+          <a:off x="10567865" y="2196352"/>
+          <a:ext cx="4373815" cy="6964678"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -38354"/>
-            <a:gd name="adj2" fmla="val 54329"/>
+            <a:gd name="adj1" fmla="val -5227"/>
+            <a:gd name="adj2" fmla="val 82218"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="25400">
@@ -5400,21 +5400,23 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>3227294</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>114871</xdr:rowOff>
+      <xdr:rowOff>159694</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="70" name="直線矢印コネクタ 66"/>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="34" idx="4"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
           <a:off x="7267881" y="12718676"/>
-          <a:ext cx="4554325" cy="1235460"/>
+          <a:ext cx="4554325" cy="1280283"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 100194"/>
+            <a:gd name="adj1" fmla="val 100440"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="25400">
@@ -8061,7 +8063,7 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
@@ -8271,9 +8273,9 @@
   </sheetPr>
   <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>

--- a/Doc/1.SA/現行/業務フロー/現行業務フロー（随時）.xlsx
+++ b/Doc/1.SA/現行/業務フロー/現行業務フロー（随時）.xlsx
@@ -2,14 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\zaimu\Doc\1.SA\現行\業務フロー\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4800" windowWidth="11085" windowHeight="7605" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="6000" windowWidth="11085" windowHeight="7605"/>
   </bookViews>
   <sheets>
     <sheet name="受注" sheetId="2" r:id="rId1"/>
@@ -18,7 +13,7 @@
     <sheet name="入金" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">施行!$A$1:$G$87</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">施行!$A$1:$G$86</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">受注!$A$1:$G$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">入金!$A$1:$G$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">納品請求!$A$1:$G$31</definedName>
@@ -33,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>顧客</t>
     <rPh sb="0" eb="2">
@@ -252,6 +247,99 @@
     <t>支店</t>
     <rPh sb="0" eb="2">
       <t>シテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■以下のシステムは逐次利用のため、フロー上には記載しない。</t>
+    <rPh sb="1" eb="3">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チクジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　【社内システム】</t>
+    <rPh sb="2" eb="4">
+      <t>シャナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　・入金閲覧システム</t>
+    <rPh sb="3" eb="7">
+      <t>ニュウキンエツラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　【財務部内システム】</t>
+    <rPh sb="2" eb="4">
+      <t>ザイム</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　・既払閲覧システム</t>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>バライ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>エツラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　・経理一覧</t>
+    <rPh sb="3" eb="7">
+      <t>ケイリイチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　・外注check</t>
+    <rPh sb="3" eb="5">
+      <t>ガイチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　・業番点検</t>
+    <rPh sb="3" eb="4">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>テンケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　・銀行ダウンロード</t>
+    <rPh sb="3" eb="5">
+      <t>ギンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -479,7 +567,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -548,6 +636,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1891,14 +1985,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>974911</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>33623</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>22417</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2007286</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>68361</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>57154</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1907,8 +2001,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2039470" y="6488211"/>
-          <a:ext cx="1032375" cy="572622"/>
+          <a:off x="2039470" y="7407093"/>
+          <a:ext cx="1032375" cy="572620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1985,14 +2079,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2610970</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>168093</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3592045</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>120465</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>133346</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2001,8 +2095,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3675529" y="6443387"/>
-          <a:ext cx="981075" cy="669550"/>
+          <a:off x="3675529" y="7362269"/>
+          <a:ext cx="981075" cy="669548"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -2084,14 +2178,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2007286</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>140640</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>129433</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2610970</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>144280</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>133073</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2103,7 +2197,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3071845" y="6774522"/>
+          <a:off x="3071845" y="7693404"/>
           <a:ext cx="603684" cy="3640"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2137,13 +2231,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>974911</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>100856</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2007286</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>69356</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2216,13 +2310,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2007286</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>174753</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1349746</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>1684</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2270,14 +2364,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1491099</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>68363</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>57154</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1491099</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>151496</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>151494</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2289,8 +2383,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2555658" y="7060834"/>
-          <a:ext cx="0" cy="621014"/>
+          <a:off x="2555658" y="7979713"/>
+          <a:ext cx="0" cy="452928"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2323,13 +2417,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2017059</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>89651</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3372971</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>168093</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2385,13 +2479,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>974911</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>156881</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2007286</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>125380</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2464,14 +2558,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1355909</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>168645</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2435909</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>56587</xdr:rowOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>56588</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2563,13 +2657,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2007286</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>22969</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1355909</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>51484</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2617,13 +2711,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2023782</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>141194</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3379694</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>40342</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2679,13 +2773,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1491099</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>69356</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1491099</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>28225</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2732,13 +2826,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>981633</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>40351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2014008</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>8850</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2811,14 +2905,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1351425</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>89646</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2431425</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>156883</xdr:rowOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>156881</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2910,13 +3004,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2014008</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>114248</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1351425</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2964,13 +3058,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2041709</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>136720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>67243</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3026,14 +3120,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>988355</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>103109</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2020730</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>71610</xdr:rowOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>71609</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3105,14 +3199,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1358146</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>126077</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2438146</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>14018</xdr:rowOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>14019</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3204,13 +3298,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2020730</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>159694</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1358146</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>177007</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3258,14 +3352,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2037226</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>134477</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3393138</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>132245</xdr:rowOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>132246</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3334,14 +3428,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1349746</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>147360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2429746</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>35301</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>35302</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3832,7 +3926,7 @@
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>支払処理</a:t>
+            <a:t>入力処理</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4432,14 +4526,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1355913</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>60512</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2435913</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>89649</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>127749</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4448,8 +4542,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6185648" y="5759824"/>
-          <a:ext cx="1080000" cy="1143000"/>
+          <a:off x="6185088" y="7147112"/>
+          <a:ext cx="1080000" cy="1153087"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -4511,27 +4605,27 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2435913</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>43424</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>94131</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1456765</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>56030</xdr:rowOff>
+      <xdr:colOff>1424828</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>111998</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="91" name="直線矢印コネクタ 66"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="86" idx="1"/>
+          <a:stCxn id="68" idx="1"/>
           <a:endCxn id="90" idx="4"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="7265648" y="6318718"/>
-          <a:ext cx="2786029" cy="12606"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7265088" y="7723656"/>
+          <a:ext cx="2751290" cy="17867"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4565,14 +4659,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1299883</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>156893</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2379883</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>44835</xdr:rowOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>44836</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4664,13 +4758,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1456765</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>112068</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2489140</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>80567</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4741,34 +4835,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1972953</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1839883</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>11205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2435915</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>162706</xdr:rowOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>156893</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="97" name="直線矢印コネクタ 66"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="55" idx="4"/>
-          <a:endCxn id="96" idx="0"/>
+          <a:endCxn id="95" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="10567865" y="2196352"/>
-          <a:ext cx="4373815" cy="6964678"/>
+          <a:off x="14345648" y="2196352"/>
+          <a:ext cx="596032" cy="8213923"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -5227"/>
-            <a:gd name="adj2" fmla="val 82218"/>
+            <a:gd name="adj1" fmla="val -38354"/>
+            <a:gd name="adj2" fmla="val 53479"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="25400">
@@ -4800,13 +4894,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2489140</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>6671</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1299883</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>11217</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4854,13 +4948,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2435909</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>6671</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1456765</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>22969</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4908,14 +5002,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>537886</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1456768</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>78442</xdr:rowOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4997,32 +5091,32 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2431425</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>6671</xdr:rowOff>
+      <xdr:colOff>2438146</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>11217</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2489140</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>123265</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2379883</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>159695</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="49" name="直線矢印コネクタ 66"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="30" idx="4"/>
-          <a:endCxn id="96" idx="3"/>
+          <a:stCxn id="34" idx="4"/>
+          <a:endCxn id="95" idx="4"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7261160" y="9363583"/>
-          <a:ext cx="3822892" cy="3343888"/>
+          <a:off x="7267881" y="10981776"/>
+          <a:ext cx="7617767" cy="2837890"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 119757"/>
+            <a:gd name="adj1" fmla="val 103001"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="25400">
@@ -5030,291 +5124,6 @@
             <a:schemeClr val="accent5"/>
           </a:solidFill>
           <a:prstDash val="sysDash"/>
-          <a:tailEnd type="none"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1456765</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>168103</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2489140</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>136601</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="フローチャート: 手操作入力 56"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10051677" y="10600779"/>
-          <a:ext cx="1032375" cy="506381"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartManualInput">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent5"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>既払閲覧処理</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1299883</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>11216</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2379883</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>78452</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="フローチャート: 磁気ディスク 57"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13805648" y="10264598"/>
-          <a:ext cx="1080000" cy="1143001"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMagneticDisk">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent5"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>既払閲覧</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>システム</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2489140</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>44834</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1299883</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>62705</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="63" name="直線矢印コネクタ 66"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="58" idx="2"/>
-          <a:endCxn id="57" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="11084052" y="10836099"/>
-          <a:ext cx="2721596" cy="17871"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:schemeClr val="accent5"/>
-          </a:solidFill>
-          <a:prstDash val="sysDash"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1972953</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>80567</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1972953</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>39446</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="66" name="直線矢印コネクタ 65"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="96" idx="2"/>
-          <a:endCxn id="57" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10567865" y="9616773"/>
-          <a:ext cx="0" cy="1034644"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:schemeClr val="accent5"/>
-          </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -5339,27 +5148,27 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2429746</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>1683</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1972953</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>162706</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1839883</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>156892</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="67" name="直線矢印コネクタ 66"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="48" idx="4"/>
-          <a:endCxn id="96" idx="0"/>
+          <a:endCxn id="95" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7259481" y="7924242"/>
-          <a:ext cx="3308384" cy="1236788"/>
+          <a:ext cx="7086167" cy="872386"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -5392,31 +5201,31 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2438146</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
+      <xdr:colOff>2431425</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>123263</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>3227294</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>159694</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2600325</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="70" name="直線矢印コネクタ 66"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="34" idx="4"/>
+          <a:stCxn id="30" idx="4"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7267881" y="12718676"/>
-          <a:ext cx="4554325" cy="1280283"/>
+        <a:xfrm>
+          <a:off x="7261160" y="12528175"/>
+          <a:ext cx="7844930" cy="563"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 100440"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="25400">
@@ -5448,13 +5257,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>470646</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>134472</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1699931</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>67796</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5464,7 +5273,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="649940" y="15060707"/>
+          <a:off x="649940" y="14881413"/>
           <a:ext cx="2114550" cy="471207"/>
           <a:chOff x="1143000" y="4162425"/>
           <a:chExt cx="2114550" cy="476250"/>
@@ -5646,6 +5455,138 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1424828</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2457203</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>4920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="フローチャート: 手操作入力 67"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10016378" y="7486650"/>
+          <a:ext cx="1032375" cy="509745"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartManualInput">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>入力処理</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1941016</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>155878</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1947303</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>89075</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="直線矢印コネクタ 68"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="86" idx="2"/>
+          <a:endCxn id="68" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10532566" y="6699553"/>
+          <a:ext cx="6287" cy="838072"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8063,7 +8004,7 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
@@ -8271,11 +8212,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F76" sqref="F76"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -8319,7 +8260,9 @@
       <c r="D4" s="3"/>
       <c r="E4" s="19"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="20"/>
+      <c r="G4" s="23" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
@@ -8327,7 +8270,9 @@
       <c r="D5" s="5"/>
       <c r="E5" s="8"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="16"/>
+      <c r="G5" s="23" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
@@ -8335,7 +8280,9 @@
       <c r="D6" s="5"/>
       <c r="E6" s="8"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="16"/>
+      <c r="G6" s="23" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
@@ -8343,7 +8290,9 @@
       <c r="D7" s="5"/>
       <c r="E7" s="8"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="16"/>
+      <c r="G7" s="23" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
@@ -8351,7 +8300,9 @@
       <c r="D8" s="5"/>
       <c r="E8" s="8"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="16"/>
+      <c r="G8" s="23" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
@@ -8359,7 +8310,9 @@
       <c r="D9" s="5"/>
       <c r="E9" s="8"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="16"/>
+      <c r="G9" s="23" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
@@ -8367,7 +8320,9 @@
       <c r="D10" s="5"/>
       <c r="E10" s="8"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="16"/>
+      <c r="G10" s="23" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
@@ -8375,7 +8330,9 @@
       <c r="D11" s="5"/>
       <c r="E11" s="8"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="16"/>
+      <c r="G11" s="23" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
@@ -8383,7 +8340,9 @@
       <c r="D12" s="5"/>
       <c r="E12" s="8"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="16"/>
+      <c r="G12" s="23" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
@@ -8391,7 +8350,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="8"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="16"/>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
@@ -8399,7 +8358,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="8"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="16"/>
+      <c r="G14" s="23"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
@@ -8407,7 +8366,7 @@
       <c r="D15" s="5"/>
       <c r="E15" s="8"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="16"/>
+      <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
@@ -8415,7 +8374,7 @@
       <c r="D16" s="5"/>
       <c r="E16" s="8"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="16"/>
+      <c r="G16" s="23"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
@@ -8423,7 +8382,7 @@
       <c r="D17" s="5"/>
       <c r="E17" s="8"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="16"/>
+      <c r="G17" s="23"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
@@ -8431,7 +8390,7 @@
       <c r="D18" s="5"/>
       <c r="E18" s="8"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="16"/>
+      <c r="G18" s="23"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
@@ -8439,7 +8398,7 @@
       <c r="D19" s="5"/>
       <c r="E19" s="8"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="16"/>
+      <c r="G19" s="23"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
@@ -8447,7 +8406,7 @@
       <c r="D20" s="5"/>
       <c r="E20" s="8"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="16"/>
+      <c r="G20" s="23"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
@@ -8455,7 +8414,7 @@
       <c r="D21" s="5"/>
       <c r="E21" s="8"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="16"/>
+      <c r="G21" s="23"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
@@ -8463,7 +8422,7 @@
       <c r="D22" s="5"/>
       <c r="E22" s="8"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="16"/>
+      <c r="G22" s="23"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
@@ -8471,7 +8430,7 @@
       <c r="D23" s="5"/>
       <c r="E23" s="8"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="16"/>
+      <c r="G23" s="23"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
@@ -8479,7 +8438,7 @@
       <c r="D24" s="5"/>
       <c r="E24" s="8"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="16"/>
+      <c r="G24" s="23"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
@@ -8487,7 +8446,7 @@
       <c r="D25" s="5"/>
       <c r="E25" s="8"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="16"/>
+      <c r="G25" s="23"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
@@ -8495,7 +8454,7 @@
       <c r="D26" s="5"/>
       <c r="E26" s="8"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="16"/>
+      <c r="G26" s="23"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
@@ -8503,7 +8462,7 @@
       <c r="D27" s="5"/>
       <c r="E27" s="8"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="16"/>
+      <c r="G27" s="23"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
@@ -8511,7 +8470,7 @@
       <c r="D28" s="5"/>
       <c r="E28" s="8"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="16"/>
+      <c r="G28" s="23"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
@@ -8519,7 +8478,7 @@
       <c r="D29" s="5"/>
       <c r="E29" s="8"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="16"/>
+      <c r="G29" s="23"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
@@ -8527,7 +8486,7 @@
       <c r="D30" s="5"/>
       <c r="E30" s="8"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="16"/>
+      <c r="G30" s="23"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
@@ -8535,7 +8494,7 @@
       <c r="D31" s="5"/>
       <c r="E31" s="8"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="16"/>
+      <c r="G31" s="23"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
@@ -8543,7 +8502,7 @@
       <c r="D32" s="5"/>
       <c r="E32" s="8"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="16"/>
+      <c r="G32" s="23"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
@@ -8551,7 +8510,7 @@
       <c r="D33" s="5"/>
       <c r="E33" s="8"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="16"/>
+      <c r="G33" s="23"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
@@ -8559,7 +8518,7 @@
       <c r="D34" s="5"/>
       <c r="E34" s="8"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="16"/>
+      <c r="G34" s="23"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
@@ -8567,7 +8526,7 @@
       <c r="D35" s="5"/>
       <c r="E35" s="8"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="16"/>
+      <c r="G35" s="23"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
@@ -8575,7 +8534,7 @@
       <c r="D36" s="5"/>
       <c r="E36" s="8"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="16"/>
+      <c r="G36" s="23"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
@@ -8583,7 +8542,7 @@
       <c r="D37" s="5"/>
       <c r="E37" s="8"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="16"/>
+      <c r="G37" s="23"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="4"/>
@@ -8591,7 +8550,7 @@
       <c r="D38" s="5"/>
       <c r="E38" s="8"/>
       <c r="F38" s="5"/>
-      <c r="G38" s="16"/>
+      <c r="G38" s="23"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="4"/>
@@ -8599,7 +8558,7 @@
       <c r="D39" s="5"/>
       <c r="E39" s="8"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="16"/>
+      <c r="G39" s="23"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="4"/>
@@ -8607,7 +8566,7 @@
       <c r="D40" s="5"/>
       <c r="E40" s="8"/>
       <c r="F40" s="5"/>
-      <c r="G40" s="16"/>
+      <c r="G40" s="23"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="4"/>
@@ -8615,7 +8574,7 @@
       <c r="D41" s="5"/>
       <c r="E41" s="8"/>
       <c r="F41" s="5"/>
-      <c r="G41" s="16"/>
+      <c r="G41" s="23"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="4"/>
@@ -8623,7 +8582,7 @@
       <c r="D42" s="5"/>
       <c r="E42" s="8"/>
       <c r="F42" s="5"/>
-      <c r="G42" s="16"/>
+      <c r="G42" s="23"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="4"/>
@@ -8631,7 +8590,7 @@
       <c r="D43" s="5"/>
       <c r="E43" s="8"/>
       <c r="F43" s="5"/>
-      <c r="G43" s="16"/>
+      <c r="G43" s="23"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="4"/>
@@ -8639,7 +8598,7 @@
       <c r="D44" s="5"/>
       <c r="E44" s="8"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="16"/>
+      <c r="G44" s="23"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="4"/>
@@ -8647,7 +8606,7 @@
       <c r="D45" s="5"/>
       <c r="E45" s="8"/>
       <c r="F45" s="5"/>
-      <c r="G45" s="16"/>
+      <c r="G45" s="23"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="4"/>
@@ -8655,7 +8614,7 @@
       <c r="D46" s="5"/>
       <c r="E46" s="8"/>
       <c r="F46" s="5"/>
-      <c r="G46" s="16"/>
+      <c r="G46" s="23"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="4"/>
@@ -8663,7 +8622,7 @@
       <c r="D47" s="5"/>
       <c r="E47" s="8"/>
       <c r="F47" s="5"/>
-      <c r="G47" s="16"/>
+      <c r="G47" s="23"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="4"/>
@@ -8671,7 +8630,7 @@
       <c r="D48" s="5"/>
       <c r="E48" s="8"/>
       <c r="F48" s="5"/>
-      <c r="G48" s="16"/>
+      <c r="G48" s="23"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="4"/>
@@ -8679,7 +8638,7 @@
       <c r="D49" s="5"/>
       <c r="E49" s="8"/>
       <c r="F49" s="5"/>
-      <c r="G49" s="16"/>
+      <c r="G49" s="23"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="4"/>
@@ -8687,17 +8646,15 @@
       <c r="D50" s="5"/>
       <c r="E50" s="8"/>
       <c r="F50" s="5"/>
-      <c r="G50" s="16"/>
+      <c r="G50" s="23"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="4"/>
       <c r="C51" s="8"/>
       <c r="D51" s="5"/>
-      <c r="E51" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="E51" s="8"/>
       <c r="F51" s="5"/>
-      <c r="G51" s="16"/>
+      <c r="G51" s="23"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="4"/>
@@ -8705,7 +8662,7 @@
       <c r="D52" s="5"/>
       <c r="E52" s="8"/>
       <c r="F52" s="5"/>
-      <c r="G52" s="16"/>
+      <c r="G52" s="23"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="4"/>
@@ -8713,7 +8670,7 @@
       <c r="D53" s="5"/>
       <c r="E53" s="8"/>
       <c r="F53" s="5"/>
-      <c r="G53" s="16"/>
+      <c r="G53" s="23"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="4"/>
@@ -8721,7 +8678,7 @@
       <c r="D54" s="5"/>
       <c r="E54" s="8"/>
       <c r="F54" s="5"/>
-      <c r="G54" s="16"/>
+      <c r="G54" s="23"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="4"/>
@@ -8729,7 +8686,7 @@
       <c r="D55" s="5"/>
       <c r="E55" s="8"/>
       <c r="F55" s="5"/>
-      <c r="G55" s="16"/>
+      <c r="G55" s="23"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="4"/>
@@ -8737,7 +8694,7 @@
       <c r="D56" s="5"/>
       <c r="E56" s="8"/>
       <c r="F56" s="5"/>
-      <c r="G56" s="16"/>
+      <c r="G56" s="23"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="4"/>
@@ -8745,7 +8702,7 @@
       <c r="D57" s="5"/>
       <c r="E57" s="8"/>
       <c r="F57" s="5"/>
-      <c r="G57" s="16"/>
+      <c r="G57" s="23"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="4"/>
@@ -8753,7 +8710,7 @@
       <c r="D58" s="5"/>
       <c r="E58" s="8"/>
       <c r="F58" s="5"/>
-      <c r="G58" s="16"/>
+      <c r="G58" s="23"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="4"/>
@@ -8761,15 +8718,17 @@
       <c r="D59" s="5"/>
       <c r="E59" s="8"/>
       <c r="F59" s="5"/>
-      <c r="G59" s="16"/>
+      <c r="G59" s="23"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="4"/>
       <c r="C60" s="8"/>
       <c r="D60" s="5"/>
-      <c r="E60" s="8"/>
+      <c r="E60" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="F60" s="5"/>
-      <c r="G60" s="16"/>
+      <c r="G60" s="23"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="4"/>
@@ -8777,7 +8736,7 @@
       <c r="D61" s="5"/>
       <c r="E61" s="8"/>
       <c r="F61" s="5"/>
-      <c r="G61" s="16"/>
+      <c r="G61" s="23"/>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="4"/>
@@ -8785,7 +8744,7 @@
       <c r="D62" s="5"/>
       <c r="E62" s="8"/>
       <c r="F62" s="5"/>
-      <c r="G62" s="16"/>
+      <c r="G62" s="23"/>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="4"/>
@@ -8793,7 +8752,7 @@
       <c r="D63" s="5"/>
       <c r="E63" s="8"/>
       <c r="F63" s="5"/>
-      <c r="G63" s="16"/>
+      <c r="G63" s="23"/>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="4"/>
@@ -8801,7 +8760,7 @@
       <c r="D64" s="5"/>
       <c r="E64" s="8"/>
       <c r="F64" s="5"/>
-      <c r="G64" s="16"/>
+      <c r="G64" s="23"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="4"/>
@@ -8809,7 +8768,7 @@
       <c r="D65" s="5"/>
       <c r="E65" s="8"/>
       <c r="F65" s="5"/>
-      <c r="G65" s="16"/>
+      <c r="G65" s="23"/>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" s="4"/>
@@ -8817,7 +8776,7 @@
       <c r="D66" s="5"/>
       <c r="E66" s="8"/>
       <c r="F66" s="5"/>
-      <c r="G66" s="16"/>
+      <c r="G66" s="23"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" s="4"/>
@@ -8825,7 +8784,7 @@
       <c r="D67" s="5"/>
       <c r="E67" s="8"/>
       <c r="F67" s="5"/>
-      <c r="G67" s="16"/>
+      <c r="G67" s="23"/>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="4"/>
@@ -8833,7 +8792,7 @@
       <c r="D68" s="5"/>
       <c r="E68" s="8"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="16"/>
+      <c r="G68" s="23"/>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="4"/>
@@ -8841,7 +8800,7 @@
       <c r="D69" s="5"/>
       <c r="E69" s="8"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="16"/>
+      <c r="G69" s="23"/>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" s="4"/>
@@ -8849,7 +8808,7 @@
       <c r="D70" s="5"/>
       <c r="E70" s="8"/>
       <c r="F70" s="5"/>
-      <c r="G70" s="16"/>
+      <c r="G70" s="23"/>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="4"/>
@@ -8857,7 +8816,7 @@
       <c r="D71" s="5"/>
       <c r="E71" s="8"/>
       <c r="F71" s="5"/>
-      <c r="G71" s="16"/>
+      <c r="G71" s="23"/>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" s="4"/>
@@ -8865,7 +8824,7 @@
       <c r="D72" s="5"/>
       <c r="E72" s="8"/>
       <c r="F72" s="5"/>
-      <c r="G72" s="16"/>
+      <c r="G72" s="23"/>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" s="4"/>
@@ -8873,7 +8832,7 @@
       <c r="D73" s="5"/>
       <c r="E73" s="8"/>
       <c r="F73" s="5"/>
-      <c r="G73" s="16"/>
+      <c r="G73" s="23"/>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" s="4"/>
@@ -8881,7 +8840,7 @@
       <c r="D74" s="5"/>
       <c r="E74" s="8"/>
       <c r="F74" s="5"/>
-      <c r="G74" s="16"/>
+      <c r="G74" s="23"/>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" s="4"/>
@@ -8889,7 +8848,7 @@
       <c r="D75" s="5"/>
       <c r="E75" s="8"/>
       <c r="F75" s="5"/>
-      <c r="G75" s="16"/>
+      <c r="G75" s="23"/>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" s="4"/>
@@ -8897,7 +8856,7 @@
       <c r="D76" s="5"/>
       <c r="E76" s="8"/>
       <c r="F76" s="5"/>
-      <c r="G76" s="16"/>
+      <c r="G76" s="23"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" s="4"/>
@@ -8905,7 +8864,7 @@
       <c r="D77" s="5"/>
       <c r="E77" s="8"/>
       <c r="F77" s="5"/>
-      <c r="G77" s="16"/>
+      <c r="G77" s="23"/>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="4"/>
@@ -8913,7 +8872,7 @@
       <c r="D78" s="5"/>
       <c r="E78" s="8"/>
       <c r="F78" s="5"/>
-      <c r="G78" s="16"/>
+      <c r="G78" s="23"/>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="4"/>
@@ -8921,7 +8880,7 @@
       <c r="D79" s="5"/>
       <c r="E79" s="8"/>
       <c r="F79" s="5"/>
-      <c r="G79" s="16"/>
+      <c r="G79" s="23"/>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80" s="4"/>
@@ -8929,7 +8888,7 @@
       <c r="D80" s="5"/>
       <c r="E80" s="8"/>
       <c r="F80" s="5"/>
-      <c r="G80" s="16"/>
+      <c r="G80" s="23"/>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="4"/>
@@ -8937,26 +8896,18 @@
       <c r="D81" s="5"/>
       <c r="E81" s="8"/>
       <c r="F81" s="5"/>
-      <c r="G81" s="16"/>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B82" s="4"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="16"/>
-    </row>
-    <row r="83" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="6"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="17"/>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
+      <c r="G81" s="23"/>
+    </row>
+    <row r="82" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="6"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="24"/>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
         <v>16</v>
       </c>
     </row>
